--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonOM\Repositories\Formula-1-Constructor-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503B6DF-6A8E-4E96-88D8-0176A040EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87781536-EF25-43BA-9D51-8C75B3EA2DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B38841E1-F419-4689-90BF-F91CA7B5FE4B}"/>
   </bookViews>
@@ -982,7 +982,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonOM\Repositories\Formula-1-Constructor-Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owens\Repositories\Formula-1-Constructor-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87781536-EF25-43BA-9D51-8C75B3EA2DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1245B-7C3E-415B-9788-DD8961F93586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B38841E1-F419-4689-90BF-F91CA7B5FE4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B38841E1-F419-4689-90BF-F91CA7B5FE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Dictionary" sheetId="1" r:id="rId1"/>
@@ -982,17 +982,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
